--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp8a</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp8a</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H2">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I2">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J2">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>1.448160928105334</v>
+        <v>0.7687629972415556</v>
       </c>
       <c r="R2">
-        <v>13.033448352948</v>
+        <v>6.918866975174001</v>
       </c>
       <c r="S2">
-        <v>0.02642539557684253</v>
+        <v>0.01194750176881708</v>
       </c>
       <c r="T2">
-        <v>0.03109441187626991</v>
+        <v>0.01579890415141306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H3">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I3">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J3">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
-        <v>13.45278082476933</v>
+        <v>9.775134116013223</v>
       </c>
       <c r="R3">
-        <v>121.075027422924</v>
+        <v>87.97620704411902</v>
       </c>
       <c r="S3">
-        <v>0.2454803523584875</v>
+        <v>0.1519173432651515</v>
       </c>
       <c r="T3">
-        <v>0.2888534690642737</v>
+        <v>0.2008894906755961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H4">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I4">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J4">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>0.4155637181119999</v>
+        <v>0.4665281001091112</v>
       </c>
       <c r="R4">
-        <v>3.740073463008</v>
+        <v>4.198752900982</v>
       </c>
       <c r="S4">
-        <v>0.007583021627893508</v>
+        <v>0.007250407890671536</v>
       </c>
       <c r="T4">
-        <v>0.008922840798304413</v>
+        <v>0.009587652844910189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H5">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I5">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J5">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>10.13080822245</v>
+        <v>5.822856288777</v>
       </c>
       <c r="R5">
-        <v>60.78484933470001</v>
+        <v>34.937137732662</v>
       </c>
       <c r="S5">
-        <v>0.1848624759829855</v>
+        <v>0.09049419139494751</v>
       </c>
       <c r="T5">
-        <v>0.1450168128853377</v>
+        <v>0.07977729480037624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H6">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I6">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J6">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N6">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O6">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P6">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q6">
-        <v>0.165792062488</v>
+        <v>0.2698026207078889</v>
       </c>
       <c r="R6">
-        <v>1.492128562392</v>
+        <v>2.428223586371</v>
       </c>
       <c r="S6">
-        <v>0.003025299709251187</v>
+        <v>0.004193057287753574</v>
       </c>
       <c r="T6">
-        <v>0.003559829972462273</v>
+        <v>0.005544733239839623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.710799</v>
       </c>
       <c r="I7">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J7">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N7">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O7">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P7">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q7">
-        <v>0.8223574024743333</v>
+        <v>0.6007940092513332</v>
       </c>
       <c r="R7">
-        <v>7.401216622269001</v>
+        <v>5.407146083262</v>
       </c>
       <c r="S7">
-        <v>0.0150060115862678</v>
+        <v>0.009337061635355463</v>
       </c>
       <c r="T7">
-        <v>0.01765737445733412</v>
+        <v>0.0123469612884119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.710799</v>
       </c>
       <c r="I8">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J8">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P8">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q8">
         <v>7.639340131616333</v>
@@ -948,10 +948,10 @@
         <v>68.754061184547</v>
       </c>
       <c r="S8">
-        <v>0.1393992760101082</v>
+        <v>0.1187245354713695</v>
       </c>
       <c r="T8">
-        <v>0.1640292759632571</v>
+        <v>0.156996633491097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.710799</v>
       </c>
       <c r="I9">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J9">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N9">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O9">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P9">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q9">
-        <v>0.2359833725359999</v>
+        <v>0.3645951856406666</v>
       </c>
       <c r="R9">
-        <v>2.123850352824</v>
+        <v>3.281356670766</v>
       </c>
       <c r="S9">
-        <v>0.004306119470423675</v>
+        <v>0.00566624777854044</v>
       </c>
       <c r="T9">
-        <v>0.005066953567919976</v>
+        <v>0.007492822121605849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.710799</v>
       </c>
       <c r="I10">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J10">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N10">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O10">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P10">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q10">
-        <v>5.7529139014125</v>
+        <v>4.550605567100999</v>
       </c>
       <c r="R10">
-        <v>34.517483408475</v>
+        <v>27.303633402606</v>
       </c>
       <c r="S10">
-        <v>0.1049766104125164</v>
+        <v>0.07072188471246718</v>
       </c>
       <c r="T10">
-        <v>0.08234972180579268</v>
+        <v>0.06234655018818944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,40 +1104,40 @@
         <v>0.710799</v>
       </c>
       <c r="I11">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J11">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N11">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O11">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P11">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q11">
-        <v>0.09414722301399997</v>
+        <v>0.2108527579803333</v>
       </c>
       <c r="R11">
-        <v>0.8473250071259999</v>
+        <v>1.897674821823</v>
       </c>
       <c r="S11">
-        <v>0.001717956590543509</v>
+        <v>0.00327690550659846</v>
       </c>
       <c r="T11">
-        <v>0.002021496694593476</v>
+        <v>0.004333250332476214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H12">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I12">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J12">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N12">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O12">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P12">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q12">
-        <v>0.4143065098547778</v>
+        <v>0.2474618896151111</v>
       </c>
       <c r="R12">
-        <v>3.728758588693</v>
+        <v>2.227157006536</v>
       </c>
       <c r="S12">
-        <v>0.007560080651600884</v>
+        <v>0.003845855451550001</v>
       </c>
       <c r="T12">
-        <v>0.008895846456304412</v>
+        <v>0.005085607253711566</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H13">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I13">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J13">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O13">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P13">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q13">
-        <v>3.848726038095444</v>
+        <v>3.146578553168444</v>
       </c>
       <c r="R13">
-        <v>34.638534342859</v>
+        <v>28.319206978516</v>
       </c>
       <c r="S13">
-        <v>0.07022983844525355</v>
+        <v>0.0489016159266175</v>
       </c>
       <c r="T13">
-        <v>0.08263851779514357</v>
+        <v>0.06466556421781043</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H14">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I14">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J14">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N14">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O14">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P14">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q14">
-        <v>0.1188892410586666</v>
+        <v>0.1501736238942222</v>
       </c>
       <c r="R14">
-        <v>1.070003169528</v>
+        <v>1.351562615048</v>
       </c>
       <c r="S14">
-        <v>0.00216943791524345</v>
+        <v>0.002333878768285889</v>
       </c>
       <c r="T14">
-        <v>0.002552748770795748</v>
+        <v>0.003086229043916477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H15">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I15">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J15">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N15">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O15">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P15">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q15">
-        <v>2.8983379645125</v>
+        <v>1.874355328428</v>
       </c>
       <c r="R15">
-        <v>17.390027787075</v>
+        <v>11.246131970568</v>
       </c>
       <c r="S15">
-        <v>0.05288758019996281</v>
+        <v>0.02912973657959345</v>
       </c>
       <c r="T15">
-        <v>0.04148807528966666</v>
+        <v>0.02568000826069901</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H16">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I16">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J16">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N16">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O16">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P16">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q16">
-        <v>0.04743169729133332</v>
+        <v>0.08684843909377776</v>
       </c>
       <c r="R16">
-        <v>0.4268852756219999</v>
+        <v>0.7816359518439999</v>
       </c>
       <c r="S16">
-        <v>0.0008655124851658515</v>
+        <v>0.001349729218777523</v>
       </c>
       <c r="T16">
-        <v>0.001018437041729107</v>
+        <v>0.001784828575082022</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H17">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I17">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J17">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N17">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O17">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P17">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q17">
-        <v>0.1960696941518334</v>
+        <v>1.275214971492</v>
       </c>
       <c r="R17">
-        <v>1.176418164911</v>
+        <v>7.651289828952</v>
       </c>
       <c r="S17">
-        <v>0.003577792445603023</v>
+        <v>0.01981837469049703</v>
       </c>
       <c r="T17">
-        <v>0.002806627223116614</v>
+        <v>0.01747135695425829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H18">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I18">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J18">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O18">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P18">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q18">
-        <v>1.821401593298833</v>
+        <v>16.214876909802</v>
       </c>
       <c r="R18">
-        <v>10.928409559793</v>
+        <v>97.28926145881201</v>
       </c>
       <c r="S18">
-        <v>0.03323612498659544</v>
+        <v>0.2519986930382119</v>
       </c>
       <c r="T18">
-        <v>0.02607233778832659</v>
+        <v>0.2221554081419351</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H19">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I19">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J19">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N19">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O19">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P19">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q19">
-        <v>0.05626408607599999</v>
+        <v>0.7738712971559999</v>
       </c>
       <c r="R19">
-        <v>0.337584516456</v>
+        <v>4.643227782935999</v>
       </c>
       <c r="S19">
-        <v>0.0010266819815896</v>
+        <v>0.01202689089457165</v>
       </c>
       <c r="T19">
-        <v>0.0008053886978698153</v>
+        <v>0.01060259012913587</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H20">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I20">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J20">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N20">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O20">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P20">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q20">
-        <v>1.37163241400625</v>
+        <v>9.658885173893999</v>
       </c>
       <c r="R20">
-        <v>5.486529656025001</v>
+        <v>38.635540695576</v>
       </c>
       <c r="S20">
-        <v>0.0250289373388606</v>
+        <v>0.1501106948617084</v>
       </c>
       <c r="T20">
-        <v>0.01308943023180992</v>
+        <v>0.08822242232400677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H21">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I21">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J21">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N21">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O21">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P21">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q21">
-        <v>0.02244695209899999</v>
+        <v>0.4475453976179999</v>
       </c>
       <c r="R21">
-        <v>0.134681712594</v>
+        <v>2.685272385708</v>
       </c>
       <c r="S21">
-        <v>0.0004096019835907117</v>
+        <v>0.006955393858514344</v>
       </c>
       <c r="T21">
-        <v>0.000321315474630473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.062692</v>
-      </c>
-      <c r="H22">
-        <v>0.188076</v>
-      </c>
-      <c r="I22">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J22">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.470843666666667</v>
-      </c>
-      <c r="N22">
-        <v>10.412531</v>
-      </c>
-      <c r="O22">
-        <v>0.05653984104486641</v>
-      </c>
-      <c r="P22">
-        <v>0.0651263661336549</v>
-      </c>
-      <c r="Q22">
-        <v>0.2175941311506667</v>
-      </c>
-      <c r="R22">
-        <v>1.958347180356</v>
-      </c>
-      <c r="S22">
-        <v>0.003970560784552176</v>
-      </c>
-      <c r="T22">
-        <v>0.004672106120629843</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.062692</v>
-      </c>
-      <c r="H23">
-        <v>0.188076</v>
-      </c>
-      <c r="I23">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J23">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>32.24261766666667</v>
-      </c>
-      <c r="N23">
-        <v>96.72785300000001</v>
-      </c>
-      <c r="O23">
-        <v>0.5252303626496961</v>
-      </c>
-      <c r="P23">
-        <v>0.6049954204026236</v>
-      </c>
-      <c r="Q23">
-        <v>2.021354186758667</v>
-      </c>
-      <c r="R23">
-        <v>18.192187680828</v>
-      </c>
-      <c r="S23">
-        <v>0.03688477084925149</v>
-      </c>
-      <c r="T23">
-        <v>0.04340181979162259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.062692</v>
-      </c>
-      <c r="H24">
-        <v>0.188076</v>
-      </c>
-      <c r="I24">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J24">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.9959919999999999</v>
-      </c>
-      <c r="N24">
-        <v>2.987976</v>
-      </c>
-      <c r="O24">
-        <v>0.01622465163233374</v>
-      </c>
-      <c r="P24">
-        <v>0.01868863765923709</v>
-      </c>
-      <c r="Q24">
-        <v>0.06244073046399999</v>
-      </c>
-      <c r="R24">
-        <v>0.5619665741759999</v>
-      </c>
-      <c r="S24">
-        <v>0.001139390637183512</v>
-      </c>
-      <c r="T24">
-        <v>0.001340705824347133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.062692</v>
-      </c>
-      <c r="H25">
-        <v>0.188076</v>
-      </c>
-      <c r="I25">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J25">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.2807625</v>
-      </c>
-      <c r="N25">
-        <v>48.561525</v>
-      </c>
-      <c r="O25">
-        <v>0.3955322060116276</v>
-      </c>
-      <c r="P25">
-        <v>0.3037336126210463</v>
-      </c>
-      <c r="Q25">
-        <v>1.52220956265</v>
-      </c>
-      <c r="R25">
-        <v>9.1332573759</v>
-      </c>
-      <c r="S25">
-        <v>0.02777660207730235</v>
-      </c>
-      <c r="T25">
-        <v>0.02178957240843933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.062692</v>
-      </c>
-      <c r="H26">
-        <v>0.188076</v>
-      </c>
-      <c r="I26">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J26">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.3973579999999999</v>
-      </c>
-      <c r="N26">
-        <v>1.192074</v>
-      </c>
-      <c r="O26">
-        <v>0.006472938661476068</v>
-      </c>
-      <c r="P26">
-        <v>0.007455963183438351</v>
-      </c>
-      <c r="Q26">
-        <v>0.024911167736</v>
-      </c>
-      <c r="R26">
-        <v>0.224200509624</v>
-      </c>
-      <c r="S26">
-        <v>0.0004545678929248085</v>
-      </c>
-      <c r="T26">
-        <v>0.0005348840000230202</v>
+        <v>0.006131691965528801</v>
       </c>
     </row>
   </sheetData>
